--- a/EvosuiteTest/experiments/SF100/reports/targetMethods-invokedMethodFiltered.xlsx
+++ b/EvosuiteTest/experiments/SF100/reports/targetMethods-invokedMethodFiltered.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lylytran/Projects/Evosuite/experiments/SF100_unittest/evoTest-reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lylytran/Projects/Evosuite/modified-version/evosuite/EvosuiteTest/experiments/SF100/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16340"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
     <t>jwbf</t>
   </si>
   <si>
-    <t>24_saxpath</t>
+    <t>82_saxpath</t>
   </si>
   <si>
     <t>saxpath</t>
@@ -947,7 +947,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -993,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1026,7 +1026,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1125,7 +1125,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1158,7 +1158,7 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1213,7 +1213,7 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,7 +1334,7 @@
         <v>70</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1345,7 +1345,7 @@
         <v>72</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1356,7 +1356,7 @@
         <v>74</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1433,7 +1433,7 @@
         <v>88</v>
       </c>
       <c r="C44">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
         <v>90</v>
       </c>
       <c r="C45">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1455,7 +1455,7 @@
         <v>92</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1521,7 +1521,7 @@
         <v>104</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1543,7 +1543,7 @@
         <v>108</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1576,7 +1576,7 @@
         <v>114</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1587,7 +1587,7 @@
         <v>116</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1642,7 +1642,7 @@
         <v>126</v>
       </c>
       <c r="C63">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1653,7 +1653,7 @@
         <v>128</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1686,7 +1686,7 @@
         <v>134</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1719,7 +1719,7 @@
         <v>140</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1730,7 +1730,7 @@
         <v>142</v>
       </c>
       <c r="C71">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1818,7 +1818,7 @@
         <v>158</v>
       </c>
       <c r="C79">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1840,7 +1840,7 @@
         <v>162</v>
       </c>
       <c r="C81">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1851,7 +1851,7 @@
         <v>164</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1862,7 +1862,7 @@
         <v>166</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1895,7 +1895,7 @@
         <v>172</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1906,7 +1906,7 @@
         <v>174</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1961,7 +1961,7 @@
         <v>184</v>
       </c>
       <c r="C92">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1972,7 +1972,7 @@
         <v>186</v>
       </c>
       <c r="C93">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2049,13 +2049,13 @@
         <v>200</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C101">
         <f>SUM(C2:C100)</f>
-        <v>1682</v>
+        <v>1597</v>
       </c>
     </row>
   </sheetData>
